--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91038.55542057984</v>
+        <v>16769635.71663331</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91038.55542057984</v>
+        <v>16769635.71663331</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29513.1023793483</v>
+        <v>3706970.389080734</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29513.1023793483</v>
+        <v>3706970.389080734</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342122455.79601</v>
+        <v>51105253.60184583</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11083.53624933189</v>
+        <v>1167338.414802257</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21052.32725773587</v>
+        <v>2163752.637409279</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31021.11826613973</v>
+        <v>3160166.860016301</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41003.32736027997</v>
+        <v>4152042.27392449</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50969.43313341492</v>
+        <v>5151643.366911874</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60774.79905961955</v>
+        <v>6194894.942565663</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70462.86026263847</v>
+        <v>7280152.967054977</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80084.7242549543</v>
+        <v>8358208.380130196</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90466.30279638937</v>
+        <v>9318167.084768575</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100091.7206108896</v>
+        <v>10397513.95119043</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109579.5047549039</v>
+        <v>11497521.63305119</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119018.0385531054</v>
+        <v>12592308.7782558</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>128458.917692764</v>
+        <v>13686683.29552583</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>138665.7416802361</v>
+        <v>14644712.04687458</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149920.8028036235</v>
+        <v>15361317.20410691</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>396.0000000001134</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,10 +27147,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>1.000000000386126</v>
